--- a/recept_data/ReceptData.xlsx
+++ b/recept_data/ReceptData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrosgoulas/Data/work stuff/projects/Receptor data extracted from Arnaud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrosgoulas/Data/work-stuff/python-code/packages/receptor_principles/recept_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C40F5D5E-E9F9-574C-B5D4-BFB21F287A30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707BBF4-BFD7-184B-B31F-D88AEA5A14EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="49">
-  <si>
-    <t>Supplementary Table 2:</t>
-  </si>
   <si>
     <t>Receptor densities in the supragranular, granular and infragranular strata as well as averaged over all layers in the 44 cortical areas. Primary sensory</t>
   </si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>D₁</t>
+  </si>
+  <si>
+    <t>Supplementary Table 2 from Zilles K, Palomero-Gallagher N (2018) Multiple transmitter receptors in regions and layers of the human cerebral cortex. Frontiers in Neuroanatomy 11:78 https://doi.org/10.3389/fnana.2017.00078</t>
   </si>
 </sst>
 </file>
@@ -591,12 +591,12 @@
   <dimension ref="A1:M696"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A651" sqref="A651"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="168.5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="4" width="8" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -611,68 +611,68 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16">
       <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="L7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16">
@@ -759,7 +759,7 @@
     </row>
     <row r="10" spans="1:13" ht="16">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7">
         <v>564</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="11" spans="1:13" ht="16">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7">
         <v>538</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="12" spans="1:13" ht="16">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7">
         <v>606</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="13" spans="1:13" ht="16">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="7">
         <v>569</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="14" spans="1:13" ht="16">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="7">
         <v>605</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="15" spans="1:13" ht="16">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7">
         <v>639</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="16" spans="1:13" ht="16">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
         <v>583</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="17" spans="1:13" ht="16">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="7">
         <v>611</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="18" spans="1:13" ht="16">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7">
         <v>507</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="19" spans="1:13" ht="16">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="7">
         <v>740</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="20" spans="1:13" ht="16">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7">
         <v>780</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="21" spans="1:13" ht="16">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="7">
         <v>582</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="22" spans="1:13" ht="16">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="7">
         <v>564</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="23" spans="1:13" ht="16">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="7">
         <v>586</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="31" spans="1:13" ht="16">
       <c r="A31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="7">
         <v>403</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="32" spans="1:13" ht="16">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="7">
         <v>413</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="33" spans="1:13" ht="16">
       <c r="A33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="7">
         <v>414</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="34" spans="1:13" ht="16">
       <c r="A34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="7">
         <v>451</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="35" spans="1:13" ht="16">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="7">
         <v>531</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="36" spans="1:13" ht="16">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="7">
         <v>561</v>
@@ -1878,13 +1878,13 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37" s="7">
         <v>467</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="45" spans="1:13" ht="16">
       <c r="A45" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="7">
         <v>695</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="46" spans="1:13" ht="16">
       <c r="A46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="7">
         <v>714</v>
@@ -2481,49 +2481,49 @@
     </row>
     <row r="52" spans="1:13" ht="16">
       <c r="A52" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:13" ht="16">
       <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="I53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="L53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16">
@@ -2610,7 +2610,7 @@
     </row>
     <row r="56" spans="1:13" ht="16">
       <c r="A56" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="7">
         <v>1352</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="57" spans="1:13" ht="16">
       <c r="A57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="7">
         <v>1438</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="58" spans="1:13" ht="16">
       <c r="A58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="7">
         <v>1963</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="59" spans="1:13" ht="16">
       <c r="A59" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" s="7">
         <v>1785</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="60" spans="1:13" ht="16">
       <c r="A60" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="7">
         <v>1759</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="61" spans="1:13" ht="16">
       <c r="A61" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="7">
         <v>1759</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="62" spans="1:13" ht="16">
       <c r="A62" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62" s="7">
         <v>1599</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="63" spans="1:13" ht="16">
       <c r="A63" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" s="7">
         <v>1784</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="64" spans="1:13" ht="16">
       <c r="A64" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="7">
         <v>1545</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="65" spans="1:13" ht="16">
       <c r="A65" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="7">
         <v>1503</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="66" spans="1:13" ht="16">
       <c r="A66" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="7">
         <v>1699</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="67" spans="1:13" ht="16">
       <c r="A67" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="7">
         <v>1423</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="68" spans="1:13" ht="16">
       <c r="A68" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="7">
         <v>1500</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="69" spans="1:13" ht="16">
       <c r="A69" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69" s="7">
         <v>1589</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="77" spans="1:13" ht="16">
       <c r="A77" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77" s="7">
         <v>1244</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="78" spans="1:13" ht="16">
       <c r="A78" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B78" s="7">
         <v>1113</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="79" spans="1:13" ht="16">
       <c r="A79" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B79" s="7">
         <v>1341</v>
@@ -3594,7 +3594,7 @@
     </row>
     <row r="80" spans="1:13" ht="16">
       <c r="A80" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80" s="7">
         <v>1372</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="81" spans="1:13" ht="16">
       <c r="A81" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B81" s="7">
         <v>1327</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="82" spans="1:13" ht="16">
       <c r="A82" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" s="7">
         <v>1434</v>
@@ -3729,13 +3729,13 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83" s="7">
         <v>1329</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="91" spans="1:13" ht="16">
       <c r="A91" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B91" s="7">
         <v>1102</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="92" spans="1:13" ht="16">
       <c r="A92" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B92" s="7">
         <v>1187</v>
@@ -4332,48 +4332,48 @@
     </row>
     <row r="98" spans="1:13" ht="16">
       <c r="A98" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="16">
       <c r="A99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="D99" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="E99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="I99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" s="4" t="s">
+      <c r="K99" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="L99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M99" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="16">
@@ -4460,7 +4460,7 @@
     </row>
     <row r="102" spans="1:13" ht="16">
       <c r="A102" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B102" s="7">
         <v>598</v>
@@ -4501,7 +4501,7 @@
     </row>
     <row r="103" spans="1:13" ht="16">
       <c r="A103" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" s="7">
         <v>526</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="104" spans="1:13" ht="16">
       <c r="A104" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B104" s="7">
         <v>297</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="105" spans="1:13" ht="16">
       <c r="A105" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B105" s="7">
         <v>310</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="106" spans="1:13" ht="16">
       <c r="A106" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106" s="7">
         <v>295</v>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="107" spans="1:13" ht="16">
       <c r="A107" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107" s="7">
         <v>354</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="108" spans="1:13" ht="16">
       <c r="A108" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B108" s="7">
         <v>370</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="109" spans="1:13" ht="16">
       <c r="A109" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B109" s="7">
         <v>323</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="110" spans="1:13" ht="16">
       <c r="A110" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110" s="7">
         <v>308</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="111" spans="1:13" ht="16">
       <c r="A111" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B111" s="7">
         <v>413</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="112" spans="1:13" ht="16">
       <c r="A112" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B112" s="7">
         <v>316</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="113" spans="1:13" ht="16">
       <c r="A113" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B113" s="7">
         <v>454</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="114" spans="1:13" ht="16">
       <c r="A114" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B114" s="7">
         <v>546</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="115" spans="1:13" ht="16">
       <c r="A115" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B115" s="7">
         <v>530</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="123" spans="1:13" ht="16">
       <c r="A123" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B123" s="7">
         <v>422</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="124" spans="1:13" ht="16">
       <c r="A124" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B124" s="7">
         <v>368</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="125" spans="1:13" ht="16">
       <c r="A125" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B125" s="7">
         <v>490</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="126" spans="1:13" ht="16">
       <c r="A126" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B126" s="7">
         <v>477</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="127" spans="1:13" ht="16">
       <c r="A127" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B127" s="7">
         <v>414</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="128" spans="1:13" ht="16">
       <c r="A128" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B128" s="7">
         <v>484</v>
@@ -5579,13 +5579,13 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129" s="7">
         <v>914</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="137" spans="1:13" ht="16">
       <c r="A137" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B137" s="7">
         <v>562</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="138" spans="1:13" ht="16">
       <c r="A138" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B138" s="7">
         <v>582</v>
@@ -6182,48 +6182,48 @@
     </row>
     <row r="144" spans="1:13" ht="16">
       <c r="A144" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="16">
       <c r="A145" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="D145" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="E145" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="F145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="I145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J145" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G145" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H145" s="4" t="s">
+      <c r="K145" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I145" s="4" t="s">
+      <c r="L145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M145" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L145" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M145" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="16">
@@ -6310,7 +6310,7 @@
     </row>
     <row r="148" spans="1:13" ht="16">
       <c r="A148" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B148" s="7">
         <v>2071</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="149" spans="1:13" ht="16">
       <c r="A149" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B149" s="7">
         <v>2294</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="150" spans="1:13" ht="16">
       <c r="A150" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B150" s="7">
         <v>3201</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="151" spans="1:13" ht="16">
       <c r="A151" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B151" s="7">
         <v>2719</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="152" spans="1:13" ht="16">
       <c r="A152" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B152" s="7">
         <v>3178</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="153" spans="1:13" ht="16">
       <c r="A153" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B153" s="7">
         <v>2716</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="154" spans="1:13" ht="16">
       <c r="A154" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B154" s="7">
         <v>2759</v>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="155" spans="1:13" ht="16">
       <c r="A155" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B155" s="7">
         <v>3154</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="156" spans="1:13" ht="16">
       <c r="A156" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B156" s="7">
         <v>2768</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="157" spans="1:13" ht="16">
       <c r="A157" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B157" s="7">
         <v>1637</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="158" spans="1:13" ht="16">
       <c r="A158" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B158" s="7">
         <v>1788</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="159" spans="1:13" ht="16">
       <c r="A159" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B159" s="7">
         <v>1928</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="160" spans="1:13" ht="16">
       <c r="A160" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B160" s="7">
         <v>1881</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="161" spans="1:13" ht="16">
       <c r="A161" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B161" s="7">
         <v>1811</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="169" spans="1:13" ht="16">
       <c r="A169" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B169" s="7">
         <v>1952</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="170" spans="1:13" ht="16">
       <c r="A170" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B170" s="7">
         <v>1844</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="171" spans="1:13" ht="16">
       <c r="A171" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B171" s="7">
         <v>2030</v>
@@ -7294,7 +7294,7 @@
     </row>
     <row r="172" spans="1:13" ht="16">
       <c r="A172" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B172" s="7">
         <v>2253</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="173" spans="1:13" ht="16">
       <c r="A173" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B173" s="7">
         <v>1787</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="174" spans="1:13" ht="16">
       <c r="A174" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B174" s="7">
         <v>2112</v>
@@ -7429,13 +7429,13 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H175" s="7">
         <v>992</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="183" spans="1:13" ht="16">
       <c r="A183" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B183" s="7">
         <v>1542</v>
@@ -7786,7 +7786,7 @@
     </row>
     <row r="184" spans="1:13" ht="16">
       <c r="A184" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B184" s="7">
         <v>1555</v>
@@ -8032,48 +8032,48 @@
     </row>
     <row r="190" spans="1:13" ht="16">
       <c r="A190" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="16">
       <c r="A191" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="C191" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="D191" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="E191" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E191" s="4" t="s">
+      <c r="F191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H191" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F191" s="4" t="s">
+      <c r="I191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J191" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G191" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H191" s="4" t="s">
+      <c r="K191" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I191" s="4" t="s">
+      <c r="L191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M191" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J191" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K191" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L191" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M191" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="16">
@@ -8160,7 +8160,7 @@
     </row>
     <row r="194" spans="1:13" ht="16">
       <c r="A194" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B194" s="7">
         <v>2953</v>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="195" spans="1:13" ht="16">
       <c r="A195" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B195" s="7">
         <v>3272</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="196" spans="1:13" ht="16">
       <c r="A196" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B196" s="7">
         <v>4006</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="197" spans="1:13" ht="16">
       <c r="A197" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B197" s="7">
         <v>4213</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="198" spans="1:13" ht="16">
       <c r="A198" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B198" s="7">
         <v>4164</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="199" spans="1:13" ht="16">
       <c r="A199" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B199" s="7">
         <v>3061</v>
@@ -8406,7 +8406,7 @@
     </row>
     <row r="200" spans="1:13" ht="16">
       <c r="A200" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B200" s="7">
         <v>3098</v>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="201" spans="1:13" ht="16">
       <c r="A201" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B201" s="7">
         <v>3907</v>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="202" spans="1:13" ht="16">
       <c r="A202" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B202" s="7">
         <v>3204</v>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="203" spans="1:13" ht="16">
       <c r="A203" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B203" s="7">
         <v>2427</v>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="204" spans="1:13" ht="16">
       <c r="A204" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B204" s="7">
         <v>2745</v>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="205" spans="1:13" ht="16">
       <c r="A205" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B205" s="7">
         <v>3282</v>
@@ -8652,7 +8652,7 @@
     </row>
     <row r="206" spans="1:13" ht="16">
       <c r="A206" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B206" s="7">
         <v>3640</v>
@@ -8693,7 +8693,7 @@
     </row>
     <row r="207" spans="1:13" ht="16">
       <c r="A207" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B207" s="7">
         <v>3639</v>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="215" spans="1:13" ht="16">
       <c r="A215" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B215" s="7">
         <v>3718</v>
@@ -9062,7 +9062,7 @@
     </row>
     <row r="216" spans="1:13" ht="16">
       <c r="A216" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B216" s="7">
         <v>3837</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="217" spans="1:13" ht="16">
       <c r="A217" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B217" s="7">
         <v>3824</v>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="218" spans="1:13" ht="16">
       <c r="A218" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B218" s="7">
         <v>3568</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="219" spans="1:13" ht="16">
       <c r="A219" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B219" s="7">
         <v>3708</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="220" spans="1:13" ht="16">
       <c r="A220" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B220" s="7">
         <v>3940</v>
@@ -9279,13 +9279,13 @@
         <v>0.156</v>
       </c>
       <c r="E221" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H221" s="7">
         <v>2524</v>
@@ -9595,7 +9595,7 @@
     </row>
     <row r="229" spans="1:13" ht="16">
       <c r="A229" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B229" s="7">
         <v>2637</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="230" spans="1:13" ht="16">
       <c r="A230" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B230" s="7">
         <v>3107</v>
@@ -9882,48 +9882,48 @@
     </row>
     <row r="236" spans="1:13" ht="16">
       <c r="A236" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="16">
       <c r="A237" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B237" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="C237" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="D237" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="E237" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E237" s="4" t="s">
+      <c r="F237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H237" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F237" s="4" t="s">
+      <c r="I237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J237" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G237" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H237" s="4" t="s">
+      <c r="K237" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I237" s="4" t="s">
+      <c r="L237" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M237" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J237" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K237" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L237" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M237" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="16">
@@ -10010,7 +10010,7 @@
     </row>
     <row r="240" spans="1:13" ht="16">
       <c r="A240" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B240" s="7">
         <v>2549</v>
@@ -10051,7 +10051,7 @@
     </row>
     <row r="241" spans="1:13" ht="16">
       <c r="A241" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B241" s="7">
         <v>2719</v>
@@ -10092,7 +10092,7 @@
     </row>
     <row r="242" spans="1:13" ht="16">
       <c r="A242" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B242" s="7">
         <v>2664</v>
@@ -10133,7 +10133,7 @@
     </row>
     <row r="243" spans="1:13" ht="16">
       <c r="A243" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B243" s="7">
         <v>2543</v>
@@ -10174,7 +10174,7 @@
     </row>
     <row r="244" spans="1:13" ht="16">
       <c r="A244" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B244" s="7">
         <v>2269</v>
@@ -10215,7 +10215,7 @@
     </row>
     <row r="245" spans="1:13" ht="16">
       <c r="A245" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B245" s="7">
         <v>2108</v>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="246" spans="1:13" ht="16">
       <c r="A246" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B246" s="7">
         <v>2008</v>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="247" spans="1:13" ht="16">
       <c r="A247" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B247" s="7">
         <v>2662</v>
@@ -10338,7 +10338,7 @@
     </row>
     <row r="248" spans="1:13" ht="16">
       <c r="A248" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B248" s="7">
         <v>2125</v>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="249" spans="1:13" ht="16">
       <c r="A249" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B249" s="7">
         <v>2562</v>
@@ -10420,7 +10420,7 @@
     </row>
     <row r="250" spans="1:13" ht="16">
       <c r="A250" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B250" s="7">
         <v>2960</v>
@@ -10461,7 +10461,7 @@
     </row>
     <row r="251" spans="1:13" ht="16">
       <c r="A251" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B251" s="7">
         <v>2399</v>
@@ -10502,7 +10502,7 @@
     </row>
     <row r="252" spans="1:13" ht="16">
       <c r="A252" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B252" s="7">
         <v>2713</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="253" spans="1:13" ht="16">
       <c r="A253" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B253" s="7">
         <v>2648</v>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="261" spans="1:13" ht="16">
       <c r="A261" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B261" s="7">
         <v>2881</v>
@@ -10912,7 +10912,7 @@
     </row>
     <row r="262" spans="1:13" ht="16">
       <c r="A262" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B262" s="7">
         <v>2800</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="263" spans="1:13" ht="16">
       <c r="A263" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B263" s="7">
         <v>2168</v>
@@ -10994,7 +10994,7 @@
     </row>
     <row r="264" spans="1:13" ht="16">
       <c r="A264" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B264" s="7">
         <v>2654</v>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="265" spans="1:13" ht="16">
       <c r="A265" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B265" s="7">
         <v>2582</v>
@@ -11076,7 +11076,7 @@
     </row>
     <row r="266" spans="1:13" ht="16">
       <c r="A266" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B266" s="7">
         <v>2199</v>
@@ -11129,13 +11129,13 @@
         <v>0.224</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F267" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H267" s="7">
         <v>2340</v>
@@ -11445,7 +11445,7 @@
     </row>
     <row r="275" spans="1:13" ht="16">
       <c r="A275" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B275" s="7">
         <v>2740</v>
@@ -11486,7 +11486,7 @@
     </row>
     <row r="276" spans="1:13" ht="16">
       <c r="A276" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B276" s="7">
         <v>2808</v>
@@ -11732,48 +11732,48 @@
     </row>
     <row r="282" spans="1:13" ht="16">
       <c r="A282" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="283" spans="1:13" ht="16">
       <c r="A283" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="C283" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="D283" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D283" s="5" t="s">
+      <c r="E283" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E283" s="4" t="s">
+      <c r="F283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G283" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H283" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F283" s="4" t="s">
+      <c r="I283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J283" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G283" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H283" s="4" t="s">
+      <c r="K283" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I283" s="4" t="s">
+      <c r="L283" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M283" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J283" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K283" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L283" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M283" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:13" ht="16">
@@ -11860,7 +11860,7 @@
     </row>
     <row r="286" spans="1:13" ht="16">
       <c r="A286" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B286" s="7">
         <v>656</v>
@@ -11901,7 +11901,7 @@
     </row>
     <row r="287" spans="1:13" ht="16">
       <c r="A287" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B287" s="7">
         <v>771</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="288" spans="1:13" ht="16">
       <c r="A288" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B288" s="7">
         <v>730</v>
@@ -11983,7 +11983,7 @@
     </row>
     <row r="289" spans="1:13" ht="16">
       <c r="A289" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B289" s="7">
         <v>660</v>
@@ -12024,7 +12024,7 @@
     </row>
     <row r="290" spans="1:13" ht="16">
       <c r="A290" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B290" s="7">
         <v>731</v>
@@ -12065,7 +12065,7 @@
     </row>
     <row r="291" spans="1:13" ht="16">
       <c r="A291" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B291" s="7">
         <v>460</v>
@@ -12106,7 +12106,7 @@
     </row>
     <row r="292" spans="1:13" ht="16">
       <c r="A292" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B292" s="7">
         <v>478</v>
@@ -12147,7 +12147,7 @@
     </row>
     <row r="293" spans="1:13" ht="16">
       <c r="A293" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B293" s="7">
         <v>803</v>
@@ -12188,7 +12188,7 @@
     </row>
     <row r="294" spans="1:13" ht="16">
       <c r="A294" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B294" s="7">
         <v>766</v>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="295" spans="1:13" ht="16">
       <c r="A295" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B295" s="7">
         <v>721</v>
@@ -12270,7 +12270,7 @@
     </row>
     <row r="296" spans="1:13" ht="16">
       <c r="A296" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B296" s="7">
         <v>739</v>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="297" spans="1:13" ht="16">
       <c r="A297" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B297" s="7">
         <v>912</v>
@@ -12352,7 +12352,7 @@
     </row>
     <row r="298" spans="1:13" ht="16">
       <c r="A298" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B298" s="7">
         <v>1090</v>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="299" spans="1:13" ht="16">
       <c r="A299" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B299" s="7">
         <v>783</v>
@@ -12721,7 +12721,7 @@
     </row>
     <row r="307" spans="1:13" ht="16">
       <c r="A307" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B307" s="7">
         <v>593</v>
@@ -12762,7 +12762,7 @@
     </row>
     <row r="308" spans="1:13" ht="16">
       <c r="A308" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B308" s="7">
         <v>646</v>
@@ -12803,7 +12803,7 @@
     </row>
     <row r="309" spans="1:13" ht="16">
       <c r="A309" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B309" s="7">
         <v>738</v>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="310" spans="1:13" ht="16">
       <c r="A310" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B310" s="7">
         <v>716</v>
@@ -12885,7 +12885,7 @@
     </row>
     <row r="311" spans="1:13" ht="16">
       <c r="A311" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B311" s="7">
         <v>914</v>
@@ -12926,7 +12926,7 @@
     </row>
     <row r="312" spans="1:13" ht="16">
       <c r="A312" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B312" s="7">
         <v>854</v>
@@ -12979,13 +12979,13 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="E313" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F313" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G313" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H313" s="7">
         <v>680</v>
@@ -13295,7 +13295,7 @@
     </row>
     <row r="321" spans="1:13" ht="16">
       <c r="A321" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B321" s="7">
         <v>600</v>
@@ -13336,7 +13336,7 @@
     </row>
     <row r="322" spans="1:13" ht="16">
       <c r="A322" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B322" s="7">
         <v>570</v>
@@ -13582,48 +13582,48 @@
     </row>
     <row r="328" spans="1:13" ht="16">
       <c r="A328" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="329" spans="1:13" ht="16">
       <c r="A329" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="C329" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C329" s="4" t="s">
+      <c r="D329" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D329" s="5" t="s">
+      <c r="E329" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E329" s="4" t="s">
+      <c r="F329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G329" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H329" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F329" s="4" t="s">
+      <c r="I329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J329" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G329" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H329" s="4" t="s">
+      <c r="K329" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I329" s="4" t="s">
+      <c r="L329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M329" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J329" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K329" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L329" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M329" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="16">
@@ -13710,7 +13710,7 @@
     </row>
     <row r="332" spans="1:13" ht="16">
       <c r="A332" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B332" s="7">
         <v>191</v>
@@ -13751,7 +13751,7 @@
     </row>
     <row r="333" spans="1:13" ht="16">
       <c r="A333" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B333" s="7">
         <v>313</v>
@@ -13792,7 +13792,7 @@
     </row>
     <row r="334" spans="1:13" ht="16">
       <c r="A334" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B334" s="7">
         <v>483</v>
@@ -13833,7 +13833,7 @@
     </row>
     <row r="335" spans="1:13" ht="16">
       <c r="A335" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B335" s="7">
         <v>477</v>
@@ -13874,7 +13874,7 @@
     </row>
     <row r="336" spans="1:13" ht="16">
       <c r="A336" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B336" s="7">
         <v>389</v>
@@ -13915,7 +13915,7 @@
     </row>
     <row r="337" spans="1:13" ht="16">
       <c r="A337" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B337" s="7">
         <v>193</v>
@@ -13956,7 +13956,7 @@
     </row>
     <row r="338" spans="1:13" ht="16">
       <c r="A338" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B338" s="7">
         <v>233</v>
@@ -13997,7 +13997,7 @@
     </row>
     <row r="339" spans="1:13" ht="16">
       <c r="A339" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B339" s="7">
         <v>320</v>
@@ -14038,7 +14038,7 @@
     </row>
     <row r="340" spans="1:13" ht="16">
       <c r="A340" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B340" s="7">
         <v>285</v>
@@ -14079,7 +14079,7 @@
     </row>
     <row r="341" spans="1:13" ht="16">
       <c r="A341" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B341" s="7">
         <v>210</v>
@@ -14120,7 +14120,7 @@
     </row>
     <row r="342" spans="1:13" ht="16">
       <c r="A342" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B342" s="7">
         <v>188</v>
@@ -14161,7 +14161,7 @@
     </row>
     <row r="343" spans="1:13" ht="16">
       <c r="A343" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B343" s="7">
         <v>135</v>
@@ -14202,7 +14202,7 @@
     </row>
     <row r="344" spans="1:13" ht="16">
       <c r="A344" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B344" s="7">
         <v>157</v>
@@ -14243,7 +14243,7 @@
     </row>
     <row r="345" spans="1:13" ht="16">
       <c r="A345" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B345" s="7">
         <v>162</v>
@@ -14571,7 +14571,7 @@
     </row>
     <row r="353" spans="1:13" ht="16">
       <c r="A353" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B353" s="7">
         <v>169</v>
@@ -14612,7 +14612,7 @@
     </row>
     <row r="354" spans="1:13" ht="16">
       <c r="A354" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B354" s="7">
         <v>199</v>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="355" spans="1:13" ht="16">
       <c r="A355" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B355" s="7">
         <v>219</v>
@@ -14694,7 +14694,7 @@
     </row>
     <row r="356" spans="1:13" ht="16">
       <c r="A356" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B356" s="7">
         <v>229</v>
@@ -14735,7 +14735,7 @@
     </row>
     <row r="357" spans="1:13" ht="16">
       <c r="A357" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B357" s="7">
         <v>168</v>
@@ -14776,7 +14776,7 @@
     </row>
     <row r="358" spans="1:13" ht="16">
       <c r="A358" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B358" s="7">
         <v>187</v>
@@ -14829,13 +14829,13 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="E359" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F359" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G359" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H359" s="7">
         <v>237</v>
@@ -15145,7 +15145,7 @@
     </row>
     <row r="367" spans="1:13" ht="16">
       <c r="A367" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B367" s="7">
         <v>167</v>
@@ -15186,7 +15186,7 @@
     </row>
     <row r="368" spans="1:13" ht="16">
       <c r="A368" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B368" s="7">
         <v>176</v>
@@ -15432,48 +15432,48 @@
     </row>
     <row r="374" spans="1:13" ht="16">
       <c r="A374" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="375" spans="1:13" ht="16">
       <c r="A375" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B375" s="4" t="s">
+      <c r="C375" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C375" s="4" t="s">
+      <c r="D375" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D375" s="5" t="s">
+      <c r="E375" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E375" s="4" t="s">
+      <c r="F375" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H375" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F375" s="4" t="s">
+      <c r="I375" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J375" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G375" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H375" s="4" t="s">
+      <c r="K375" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I375" s="4" t="s">
+      <c r="L375" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M375" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J375" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K375" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L375" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M375" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:13" ht="16">
@@ -15560,7 +15560,7 @@
     </row>
     <row r="378" spans="1:13" ht="16">
       <c r="A378" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B378" s="7">
         <v>598</v>
@@ -15601,7 +15601,7 @@
     </row>
     <row r="379" spans="1:13" ht="16">
       <c r="A379" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B379" s="7">
         <v>655</v>
@@ -15642,7 +15642,7 @@
     </row>
     <row r="380" spans="1:13" ht="16">
       <c r="A380" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B380" s="7">
         <v>639</v>
@@ -15683,7 +15683,7 @@
     </row>
     <row r="381" spans="1:13" ht="16">
       <c r="A381" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B381" s="7">
         <v>566</v>
@@ -15724,7 +15724,7 @@
     </row>
     <row r="382" spans="1:13" ht="16">
       <c r="A382" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B382" s="7">
         <v>560</v>
@@ -15765,7 +15765,7 @@
     </row>
     <row r="383" spans="1:13" ht="16">
       <c r="A383" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B383" s="7">
         <v>437</v>
@@ -15806,7 +15806,7 @@
     </row>
     <row r="384" spans="1:13" ht="16">
       <c r="A384" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B384" s="7">
         <v>467</v>
@@ -15847,7 +15847,7 @@
     </row>
     <row r="385" spans="1:13" ht="16">
       <c r="A385" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B385" s="7">
         <v>569</v>
@@ -15888,7 +15888,7 @@
     </row>
     <row r="386" spans="1:13" ht="16">
       <c r="A386" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B386" s="7">
         <v>435</v>
@@ -15929,7 +15929,7 @@
     </row>
     <row r="387" spans="1:13" ht="16">
       <c r="A387" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B387" s="7">
         <v>651</v>
@@ -15970,7 +15970,7 @@
     </row>
     <row r="388" spans="1:13" ht="16">
       <c r="A388" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B388" s="7">
         <v>675</v>
@@ -16011,7 +16011,7 @@
     </row>
     <row r="389" spans="1:13" ht="16">
       <c r="A389" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B389" s="7">
         <v>681</v>
@@ -16052,7 +16052,7 @@
     </row>
     <row r="390" spans="1:13" ht="16">
       <c r="A390" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B390" s="7">
         <v>1147</v>
@@ -16093,7 +16093,7 @@
     </row>
     <row r="391" spans="1:13" ht="16">
       <c r="A391" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B391" s="7">
         <v>1134</v>
@@ -16421,7 +16421,7 @@
     </row>
     <row r="399" spans="1:13" ht="16">
       <c r="A399" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B399" s="7">
         <v>1127</v>
@@ -16462,7 +16462,7 @@
     </row>
     <row r="400" spans="1:13" ht="16">
       <c r="A400" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B400" s="7">
         <v>1116</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="401" spans="1:13" ht="16">
       <c r="A401" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B401" s="7">
         <v>1232</v>
@@ -16544,7 +16544,7 @@
     </row>
     <row r="402" spans="1:13" ht="16">
       <c r="A402" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B402" s="7">
         <v>1738</v>
@@ -16585,7 +16585,7 @@
     </row>
     <row r="403" spans="1:13" ht="16">
       <c r="A403" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B403" s="7">
         <v>852</v>
@@ -16626,7 +16626,7 @@
     </row>
     <row r="404" spans="1:13" ht="16">
       <c r="A404" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B404" s="7">
         <v>847</v>
@@ -16679,13 +16679,13 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E405" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F405" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G405" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H405" s="7">
         <v>483</v>
@@ -16995,7 +16995,7 @@
     </row>
     <row r="413" spans="1:13" ht="16">
       <c r="A413" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B413" s="7">
         <v>862</v>
@@ -17036,7 +17036,7 @@
     </row>
     <row r="414" spans="1:13" ht="16">
       <c r="A414" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B414" s="7">
         <v>810</v>
@@ -17282,48 +17282,48 @@
     </row>
     <row r="420" spans="1:13" ht="16">
       <c r="A420" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="16">
       <c r="A421" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B421" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B421" s="4" t="s">
+      <c r="C421" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C421" s="4" t="s">
+      <c r="D421" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D421" s="5" t="s">
+      <c r="E421" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E421" s="4" t="s">
+      <c r="F421" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G421" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H421" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F421" s="4" t="s">
+      <c r="I421" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J421" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G421" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H421" s="4" t="s">
+      <c r="K421" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I421" s="4" t="s">
+      <c r="L421" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M421" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J421" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K421" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L421" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M421" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="422" spans="1:13" ht="16">
@@ -17410,7 +17410,7 @@
     </row>
     <row r="424" spans="1:13" ht="16">
       <c r="A424" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B424" s="7">
         <v>58</v>
@@ -17451,7 +17451,7 @@
     </row>
     <row r="425" spans="1:13" ht="16">
       <c r="A425" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B425" s="7">
         <v>46</v>
@@ -17492,7 +17492,7 @@
     </row>
     <row r="426" spans="1:13" ht="16">
       <c r="A426" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B426" s="7">
         <v>36</v>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="427" spans="1:13" ht="16">
       <c r="A427" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B427" s="7">
         <v>39</v>
@@ -17574,7 +17574,7 @@
     </row>
     <row r="428" spans="1:13" ht="16">
       <c r="A428" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B428" s="7">
         <v>39</v>
@@ -17615,7 +17615,7 @@
     </row>
     <row r="429" spans="1:13" ht="16">
       <c r="A429" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B429" s="7">
         <v>45</v>
@@ -17656,7 +17656,7 @@
     </row>
     <row r="430" spans="1:13" ht="16">
       <c r="A430" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B430" s="7">
         <v>33</v>
@@ -17697,7 +17697,7 @@
     </row>
     <row r="431" spans="1:13" ht="16">
       <c r="A431" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B431" s="7">
         <v>44</v>
@@ -17738,7 +17738,7 @@
     </row>
     <row r="432" spans="1:13" ht="16">
       <c r="A432" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B432" s="7">
         <v>38</v>
@@ -17779,7 +17779,7 @@
     </row>
     <row r="433" spans="1:13" ht="16">
       <c r="A433" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B433" s="7">
         <v>53</v>
@@ -17820,7 +17820,7 @@
     </row>
     <row r="434" spans="1:13" ht="16">
       <c r="A434" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B434" s="7">
         <v>59</v>
@@ -17861,7 +17861,7 @@
     </row>
     <row r="435" spans="1:13" ht="16">
       <c r="A435" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B435" s="7">
         <v>40</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="436" spans="1:13" ht="16">
       <c r="A436" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B436" s="7">
         <v>37</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="437" spans="1:13" ht="16">
       <c r="A437" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B437" s="7">
         <v>35</v>
@@ -18271,7 +18271,7 @@
     </row>
     <row r="445" spans="1:13" ht="16">
       <c r="A445" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B445" s="7">
         <v>39</v>
@@ -18312,7 +18312,7 @@
     </row>
     <row r="446" spans="1:13" ht="16">
       <c r="A446" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B446" s="7">
         <v>41</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="447" spans="1:13" ht="16">
       <c r="A447" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B447" s="7">
         <v>40</v>
@@ -18394,7 +18394,7 @@
     </row>
     <row r="448" spans="1:13" ht="16">
       <c r="A448" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B448" s="7">
         <v>46</v>
@@ -18435,7 +18435,7 @@
     </row>
     <row r="449" spans="1:13" ht="16">
       <c r="A449" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B449" s="7">
         <v>27</v>
@@ -18476,7 +18476,7 @@
     </row>
     <row r="450" spans="1:13" ht="16">
       <c r="A450" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B450" s="7">
         <v>33</v>
@@ -18529,13 +18529,13 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="E451" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F451" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G451" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H451" s="7">
         <v>73</v>
@@ -18845,7 +18845,7 @@
     </row>
     <row r="459" spans="1:13" ht="16">
       <c r="A459" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B459" s="7">
         <v>60</v>
@@ -18886,7 +18886,7 @@
     </row>
     <row r="460" spans="1:13" ht="16">
       <c r="A460" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B460" s="7">
         <v>62</v>
@@ -19132,48 +19132,48 @@
     </row>
     <row r="466" spans="1:13" ht="16">
       <c r="A466" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="467" spans="1:13" ht="16">
       <c r="A467" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B467" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B467" s="4" t="s">
+      <c r="C467" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C467" s="4" t="s">
+      <c r="D467" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D467" s="5" t="s">
+      <c r="E467" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E467" s="4" t="s">
+      <c r="F467" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G467" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H467" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F467" s="4" t="s">
+      <c r="I467" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J467" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G467" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H467" s="4" t="s">
+      <c r="K467" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I467" s="4" t="s">
+      <c r="L467" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M467" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J467" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K467" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L467" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M467" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="468" spans="1:13" ht="16">
@@ -19260,7 +19260,7 @@
     </row>
     <row r="470" spans="1:13" ht="16">
       <c r="A470" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B470" s="7">
         <v>349</v>
@@ -19301,7 +19301,7 @@
     </row>
     <row r="471" spans="1:13" ht="16">
       <c r="A471" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B471" s="7">
         <v>290</v>
@@ -19342,7 +19342,7 @@
     </row>
     <row r="472" spans="1:13" ht="16">
       <c r="A472" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B472" s="7">
         <v>305</v>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="473" spans="1:13" ht="16">
       <c r="A473" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B473" s="7">
         <v>412</v>
@@ -19424,7 +19424,7 @@
     </row>
     <row r="474" spans="1:13" ht="16">
       <c r="A474" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B474" s="7">
         <v>394</v>
@@ -19465,7 +19465,7 @@
     </row>
     <row r="475" spans="1:13" ht="16">
       <c r="A475" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B475" s="7">
         <v>313</v>
@@ -19506,7 +19506,7 @@
     </row>
     <row r="476" spans="1:13" ht="16">
       <c r="A476" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B476" s="7">
         <v>324</v>
@@ -19547,7 +19547,7 @@
     </row>
     <row r="477" spans="1:13" ht="16">
       <c r="A477" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B477" s="7">
         <v>346</v>
@@ -19588,7 +19588,7 @@
     </row>
     <row r="478" spans="1:13" ht="16">
       <c r="A478" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B478" s="7">
         <v>290</v>
@@ -19629,7 +19629,7 @@
     </row>
     <row r="479" spans="1:13" ht="16">
       <c r="A479" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B479" s="7">
         <v>297</v>
@@ -19670,7 +19670,7 @@
     </row>
     <row r="480" spans="1:13" ht="16">
       <c r="A480" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B480" s="7">
         <v>262</v>
@@ -19711,7 +19711,7 @@
     </row>
     <row r="481" spans="1:13" ht="16">
       <c r="A481" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B481" s="7">
         <v>310</v>
@@ -19752,7 +19752,7 @@
     </row>
     <row r="482" spans="1:13" ht="16">
       <c r="A482" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B482" s="7">
         <v>327</v>
@@ -19793,7 +19793,7 @@
     </row>
     <row r="483" spans="1:13" ht="16">
       <c r="A483" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B483" s="7">
         <v>338</v>
@@ -20121,7 +20121,7 @@
     </row>
     <row r="491" spans="1:13" ht="16">
       <c r="A491" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B491" s="7">
         <v>348</v>
@@ -20162,7 +20162,7 @@
     </row>
     <row r="492" spans="1:13" ht="16">
       <c r="A492" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B492" s="7">
         <v>368</v>
@@ -20203,7 +20203,7 @@
     </row>
     <row r="493" spans="1:13" ht="16">
       <c r="A493" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B493" s="7">
         <v>327</v>
@@ -20244,7 +20244,7 @@
     </row>
     <row r="494" spans="1:13" ht="16">
       <c r="A494" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B494" s="7">
         <v>331</v>
@@ -20285,7 +20285,7 @@
     </row>
     <row r="495" spans="1:13" ht="16">
       <c r="A495" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B495" s="7">
         <v>306</v>
@@ -20326,7 +20326,7 @@
     </row>
     <row r="496" spans="1:13" ht="16">
       <c r="A496" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B496" s="7">
         <v>353</v>
@@ -20379,13 +20379,13 @@
         <v>1.2E-2</v>
       </c>
       <c r="E497" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F497" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G497" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H497" s="7">
         <v>506</v>
@@ -20695,7 +20695,7 @@
     </row>
     <row r="505" spans="1:13" ht="16">
       <c r="A505" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B505" s="7">
         <v>341</v>
@@ -20736,7 +20736,7 @@
     </row>
     <row r="506" spans="1:13" ht="16">
       <c r="A506" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B506" s="7">
         <v>336</v>
@@ -20982,48 +20982,48 @@
     </row>
     <row r="512" spans="1:13" ht="16">
       <c r="A512" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="513" spans="1:13" ht="16">
       <c r="A513" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B513" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B513" s="4" t="s">
+      <c r="C513" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C513" s="4" t="s">
+      <c r="D513" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D513" s="5" t="s">
+      <c r="E513" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E513" s="4" t="s">
+      <c r="F513" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G513" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H513" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F513" s="4" t="s">
+      <c r="I513" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J513" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G513" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H513" s="4" t="s">
+      <c r="K513" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I513" s="4" t="s">
+      <c r="L513" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M513" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J513" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K513" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L513" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M513" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="514" spans="1:13" ht="16">
@@ -21110,7 +21110,7 @@
     </row>
     <row r="516" spans="1:13" ht="16">
       <c r="A516" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B516" s="7">
         <v>284</v>
@@ -21151,7 +21151,7 @@
     </row>
     <row r="517" spans="1:13" ht="16">
       <c r="A517" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B517" s="7">
         <v>366</v>
@@ -21192,7 +21192,7 @@
     </row>
     <row r="518" spans="1:13" ht="16">
       <c r="A518" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B518" s="7">
         <v>417</v>
@@ -21233,7 +21233,7 @@
     </row>
     <row r="519" spans="1:13" ht="16">
       <c r="A519" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B519" s="7">
         <v>275</v>
@@ -21274,7 +21274,7 @@
     </row>
     <row r="520" spans="1:13" ht="16">
       <c r="A520" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B520" s="7">
         <v>241</v>
@@ -21315,7 +21315,7 @@
     </row>
     <row r="521" spans="1:13" ht="16">
       <c r="A521" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B521" s="7">
         <v>243</v>
@@ -21356,7 +21356,7 @@
     </row>
     <row r="522" spans="1:13" ht="16">
       <c r="A522" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B522" s="7">
         <v>234</v>
@@ -21397,7 +21397,7 @@
     </row>
     <row r="523" spans="1:13" ht="16">
       <c r="A523" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B523" s="7">
         <v>233</v>
@@ -21438,7 +21438,7 @@
     </row>
     <row r="524" spans="1:13" ht="16">
       <c r="A524" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B524" s="7">
         <v>208</v>
@@ -21479,7 +21479,7 @@
     </row>
     <row r="525" spans="1:13" ht="16">
       <c r="A525" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B525" s="7">
         <v>165</v>
@@ -21520,7 +21520,7 @@
     </row>
     <row r="526" spans="1:13" ht="16">
       <c r="A526" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B526" s="7">
         <v>159</v>
@@ -21561,7 +21561,7 @@
     </row>
     <row r="527" spans="1:13" ht="16">
       <c r="A527" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B527" s="7">
         <v>174</v>
@@ -21602,7 +21602,7 @@
     </row>
     <row r="528" spans="1:13" ht="16">
       <c r="A528" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B528" s="7">
         <v>151</v>
@@ -21643,7 +21643,7 @@
     </row>
     <row r="529" spans="1:13" ht="16">
       <c r="A529" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B529" s="7">
         <v>167</v>
@@ -21971,7 +21971,7 @@
     </row>
     <row r="537" spans="1:13" ht="16">
       <c r="A537" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B537" s="7">
         <v>173</v>
@@ -22012,7 +22012,7 @@
     </row>
     <row r="538" spans="1:13" ht="16">
       <c r="A538" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B538" s="7">
         <v>175</v>
@@ -22053,7 +22053,7 @@
     </row>
     <row r="539" spans="1:13" ht="16">
       <c r="A539" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B539" s="7">
         <v>168</v>
@@ -22094,7 +22094,7 @@
     </row>
     <row r="540" spans="1:13" ht="16">
       <c r="A540" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B540" s="7">
         <v>172</v>
@@ -22135,7 +22135,7 @@
     </row>
     <row r="541" spans="1:13" ht="16">
       <c r="A541" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B541" s="7">
         <v>152</v>
@@ -22176,7 +22176,7 @@
     </row>
     <row r="542" spans="1:13" ht="16">
       <c r="A542" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B542" s="7">
         <v>174</v>
@@ -22229,13 +22229,13 @@
         <v>9.4E-2</v>
       </c>
       <c r="E543" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F543" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G543" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H543" s="7">
         <v>188</v>
@@ -22545,7 +22545,7 @@
     </row>
     <row r="551" spans="1:13" ht="16">
       <c r="A551" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B551" s="7">
         <v>193</v>
@@ -22586,7 +22586,7 @@
     </row>
     <row r="552" spans="1:13" ht="16">
       <c r="A552" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B552" s="7">
         <v>196</v>
@@ -22832,48 +22832,48 @@
     </row>
     <row r="558" spans="1:13" ht="16">
       <c r="A558" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="559" spans="1:13" ht="16">
       <c r="A559" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B559" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B559" s="4" t="s">
+      <c r="C559" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C559" s="4" t="s">
+      <c r="D559" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D559" s="5" t="s">
+      <c r="E559" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E559" s="4" t="s">
+      <c r="F559" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H559" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F559" s="4" t="s">
+      <c r="I559" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J559" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G559" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H559" s="4" t="s">
+      <c r="K559" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I559" s="4" t="s">
+      <c r="L559" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M559" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J559" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K559" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L559" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M559" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="560" spans="1:13">
@@ -22963,7 +22963,7 @@
     </row>
     <row r="563" spans="1:13" ht="16">
       <c r="A563" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B563" s="7">
         <v>591</v>
@@ -23004,7 +23004,7 @@
     </row>
     <row r="564" spans="1:13" ht="16">
       <c r="A564" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B564" s="7">
         <v>536</v>
@@ -23045,7 +23045,7 @@
     </row>
     <row r="565" spans="1:13" ht="16">
       <c r="A565" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B565" s="7">
         <v>433</v>
@@ -23086,7 +23086,7 @@
     </row>
     <row r="566" spans="1:13" ht="16">
       <c r="A566" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B566" s="7">
         <v>537</v>
@@ -23127,7 +23127,7 @@
     </row>
     <row r="567" spans="1:13" ht="16">
       <c r="A567" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B567" s="7">
         <v>588</v>
@@ -23168,7 +23168,7 @@
     </row>
     <row r="568" spans="1:13" ht="16">
       <c r="A568" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B568" s="7">
         <v>570</v>
@@ -23209,7 +23209,7 @@
     </row>
     <row r="569" spans="1:13" ht="16">
       <c r="A569" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B569" s="7">
         <v>534</v>
@@ -23250,7 +23250,7 @@
     </row>
     <row r="570" spans="1:13" ht="16">
       <c r="A570" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B570" s="7">
         <v>614</v>
@@ -23291,7 +23291,7 @@
     </row>
     <row r="571" spans="1:13" ht="16">
       <c r="A571" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B571" s="7">
         <v>750</v>
@@ -23332,7 +23332,7 @@
     </row>
     <row r="572" spans="1:13" ht="16">
       <c r="A572" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B572" s="7">
         <v>377</v>
@@ -23373,7 +23373,7 @@
     </row>
     <row r="573" spans="1:13" ht="16">
       <c r="A573" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B573" s="7">
         <v>525</v>
@@ -23414,7 +23414,7 @@
     </row>
     <row r="574" spans="1:13" ht="16">
       <c r="A574" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B574" s="7">
         <v>665</v>
@@ -23455,7 +23455,7 @@
     </row>
     <row r="575" spans="1:13" ht="16">
       <c r="A575" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B575" s="7">
         <v>573</v>
@@ -23496,7 +23496,7 @@
     </row>
     <row r="576" spans="1:13" ht="16">
       <c r="A576" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B576" s="7">
         <v>758</v>
@@ -23824,7 +23824,7 @@
     </row>
     <row r="584" spans="1:13" ht="16">
       <c r="A584" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B584" s="7">
         <v>616</v>
@@ -23865,7 +23865,7 @@
     </row>
     <row r="585" spans="1:13" ht="16">
       <c r="A585" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B585" s="7">
         <v>581</v>
@@ -23906,7 +23906,7 @@
     </row>
     <row r="586" spans="1:13" ht="16">
       <c r="A586" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B586" s="7">
         <v>516</v>
@@ -23947,7 +23947,7 @@
     </row>
     <row r="587" spans="1:13" ht="16">
       <c r="A587" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B587" s="7">
         <v>502</v>
@@ -23988,7 +23988,7 @@
     </row>
     <row r="588" spans="1:13" ht="16">
       <c r="A588" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B588" s="7">
         <v>657</v>
@@ -24029,7 +24029,7 @@
     </row>
     <row r="589" spans="1:13" ht="16">
       <c r="A589" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B589" s="7">
         <v>631</v>
@@ -24082,13 +24082,13 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="E590" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F590" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G590" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H590" s="7">
         <v>370</v>
@@ -24398,7 +24398,7 @@
     </row>
     <row r="598" spans="1:13" ht="16">
       <c r="A598" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B598" s="7">
         <v>634</v>
@@ -24439,7 +24439,7 @@
     </row>
     <row r="599" spans="1:13" ht="16">
       <c r="A599" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B599" s="7">
         <v>605</v>
@@ -24685,48 +24685,48 @@
     </row>
     <row r="605" spans="1:13" ht="16">
       <c r="A605" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="606" spans="1:13" ht="16">
       <c r="A606" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B606" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B606" s="4" t="s">
+      <c r="C606" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C606" s="4" t="s">
+      <c r="D606" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D606" s="5" t="s">
+      <c r="E606" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E606" s="4" t="s">
+      <c r="F606" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G606" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H606" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F606" s="4" t="s">
+      <c r="I606" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J606" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G606" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H606" s="4" t="s">
+      <c r="K606" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I606" s="4" t="s">
+      <c r="L606" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M606" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J606" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K606" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L606" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M606" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="607" spans="1:13" ht="16">
@@ -24813,7 +24813,7 @@
     </row>
     <row r="609" spans="1:13" ht="16">
       <c r="A609" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B609" s="7">
         <v>423</v>
@@ -24854,7 +24854,7 @@
     </row>
     <row r="610" spans="1:13" ht="16">
       <c r="A610" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B610" s="7">
         <v>482</v>
@@ -24895,7 +24895,7 @@
     </row>
     <row r="611" spans="1:13" ht="16">
       <c r="A611" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B611" s="7">
         <v>551</v>
@@ -24936,7 +24936,7 @@
     </row>
     <row r="612" spans="1:13" ht="16">
       <c r="A612" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B612" s="7">
         <v>520</v>
@@ -24977,7 +24977,7 @@
     </row>
     <row r="613" spans="1:13" ht="16">
       <c r="A613" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B613" s="7">
         <v>508</v>
@@ -25018,7 +25018,7 @@
     </row>
     <row r="614" spans="1:13" ht="16">
       <c r="A614" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B614" s="7">
         <v>397</v>
@@ -25059,7 +25059,7 @@
     </row>
     <row r="615" spans="1:13" ht="16">
       <c r="A615" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B615" s="7">
         <v>418</v>
@@ -25100,7 +25100,7 @@
     </row>
     <row r="616" spans="1:13" ht="16">
       <c r="A616" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B616" s="7">
         <v>521</v>
@@ -25141,7 +25141,7 @@
     </row>
     <row r="617" spans="1:13" ht="16">
       <c r="A617" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B617" s="7">
         <v>454</v>
@@ -25182,7 +25182,7 @@
     </row>
     <row r="618" spans="1:13" ht="16">
       <c r="A618" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B618" s="7">
         <v>257</v>
@@ -25223,7 +25223,7 @@
     </row>
     <row r="619" spans="1:13" ht="16">
       <c r="A619" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B619" s="7">
         <v>318</v>
@@ -25264,7 +25264,7 @@
     </row>
     <row r="620" spans="1:13" ht="16">
       <c r="A620" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B620" s="7">
         <v>460</v>
@@ -25305,7 +25305,7 @@
     </row>
     <row r="621" spans="1:13" ht="16">
       <c r="A621" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B621" s="7">
         <v>416</v>
@@ -25346,7 +25346,7 @@
     </row>
     <row r="622" spans="1:13" ht="16">
       <c r="A622" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B622" s="7">
         <v>422</v>
@@ -25674,7 +25674,7 @@
     </row>
     <row r="630" spans="1:13" ht="16">
       <c r="A630" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B630" s="7">
         <v>395</v>
@@ -25715,7 +25715,7 @@
     </row>
     <row r="631" spans="1:13" ht="16">
       <c r="A631" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B631" s="7">
         <v>429</v>
@@ -25756,7 +25756,7 @@
     </row>
     <row r="632" spans="1:13" ht="16">
       <c r="A632" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B632" s="7">
         <v>413</v>
@@ -25797,7 +25797,7 @@
     </row>
     <row r="633" spans="1:13" ht="16">
       <c r="A633" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B633" s="7">
         <v>362</v>
@@ -25838,7 +25838,7 @@
     </row>
     <row r="634" spans="1:13" ht="16">
       <c r="A634" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B634" s="7">
         <v>461</v>
@@ -25879,7 +25879,7 @@
     </row>
     <row r="635" spans="1:13" ht="16">
       <c r="A635" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B635" s="7">
         <v>461</v>
@@ -25932,13 +25932,13 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="E636" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F636" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G636" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H636" s="7">
         <v>367</v>
@@ -26248,7 +26248,7 @@
     </row>
     <row r="644" spans="1:13" ht="16">
       <c r="A644" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B644" s="7">
         <v>320</v>
@@ -26289,7 +26289,7 @@
     </row>
     <row r="645" spans="1:13" ht="16">
       <c r="A645" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B645" s="7">
         <v>315</v>
@@ -26535,48 +26535,48 @@
     </row>
     <row r="651" spans="1:13" ht="16">
       <c r="A651" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="652" spans="1:13" ht="16">
       <c r="A652" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B652" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B652" s="4" t="s">
+      <c r="C652" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C652" s="4" t="s">
+      <c r="D652" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D652" s="5" t="s">
+      <c r="E652" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E652" s="4" t="s">
+      <c r="F652" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G652" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H652" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F652" s="4" t="s">
+      <c r="I652" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J652" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G652" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H652" s="4" t="s">
+      <c r="K652" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I652" s="4" t="s">
+      <c r="L652" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M652" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J652" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K652" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L652" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M652" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="653" spans="1:13" ht="16">
@@ -26663,7 +26663,7 @@
     </row>
     <row r="655" spans="1:13" ht="16">
       <c r="A655" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B655" s="7">
         <v>76</v>
@@ -26704,7 +26704,7 @@
     </row>
     <row r="656" spans="1:13" ht="16">
       <c r="A656" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B656" s="7">
         <v>108</v>
@@ -26745,7 +26745,7 @@
     </row>
     <row r="657" spans="1:13" ht="16">
       <c r="A657" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B657" s="7">
         <v>135</v>
@@ -26786,7 +26786,7 @@
     </row>
     <row r="658" spans="1:13" ht="16">
       <c r="A658" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B658" s="7">
         <v>133</v>
@@ -26827,7 +26827,7 @@
     </row>
     <row r="659" spans="1:13" ht="16">
       <c r="A659" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B659" s="7">
         <v>132</v>
@@ -26868,7 +26868,7 @@
     </row>
     <row r="660" spans="1:13" ht="16">
       <c r="A660" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B660" s="7">
         <v>118</v>
@@ -26909,7 +26909,7 @@
     </row>
     <row r="661" spans="1:13" ht="16">
       <c r="A661" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B661" s="7">
         <v>114</v>
@@ -26950,7 +26950,7 @@
     </row>
     <row r="662" spans="1:13" ht="16">
       <c r="A662" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B662" s="7">
         <v>128</v>
@@ -26991,7 +26991,7 @@
     </row>
     <row r="663" spans="1:13" ht="16">
       <c r="A663" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B663" s="7">
         <v>115</v>
@@ -27032,7 +27032,7 @@
     </row>
     <row r="664" spans="1:13" ht="16">
       <c r="A664" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B664" s="7">
         <v>69</v>
@@ -27073,7 +27073,7 @@
     </row>
     <row r="665" spans="1:13" ht="16">
       <c r="A665" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B665" s="7">
         <v>85</v>
@@ -27114,7 +27114,7 @@
     </row>
     <row r="666" spans="1:13" ht="16">
       <c r="A666" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B666" s="7">
         <v>97</v>
@@ -27155,7 +27155,7 @@
     </row>
     <row r="667" spans="1:13" ht="16">
       <c r="A667" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B667" s="7">
         <v>91</v>
@@ -27196,7 +27196,7 @@
     </row>
     <row r="668" spans="1:13" ht="16">
       <c r="A668" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B668" s="7">
         <v>97</v>
@@ -27524,7 +27524,7 @@
     </row>
     <row r="676" spans="1:13" ht="16">
       <c r="A676" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B676" s="7">
         <v>88</v>
@@ -27565,7 +27565,7 @@
     </row>
     <row r="677" spans="1:13" ht="16">
       <c r="A677" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B677" s="7">
         <v>85</v>
@@ -27606,7 +27606,7 @@
     </row>
     <row r="678" spans="1:13" ht="16">
       <c r="A678" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B678" s="7">
         <v>75</v>
@@ -27647,7 +27647,7 @@
     </row>
     <row r="679" spans="1:13" ht="16">
       <c r="A679" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B679" s="7">
         <v>96</v>
@@ -27688,7 +27688,7 @@
     </row>
     <row r="680" spans="1:13" ht="16">
       <c r="A680" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B680" s="7">
         <v>84</v>
@@ -27729,7 +27729,7 @@
     </row>
     <row r="681" spans="1:13" ht="16">
       <c r="A681" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B681" s="7">
         <v>87</v>
@@ -27782,13 +27782,13 @@
         <v>0.314</v>
       </c>
       <c r="E682" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F682" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G682" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H682" s="7">
         <v>81</v>
@@ -28098,7 +28098,7 @@
     </row>
     <row r="690" spans="1:13" ht="16">
       <c r="A690" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B690" s="7">
         <v>84</v>
@@ -28139,7 +28139,7 @@
     </row>
     <row r="691" spans="1:13" ht="16">
       <c r="A691" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B691" s="7">
         <v>78</v>
